--- a/CM/2019年12月.xlsx
+++ b/CM/2019年12月.xlsx
@@ -1,177 +1,308 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="25" sheetId="1" r:id="rId1"/>
     <sheet name="action" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="server" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+  <si>
+    <t>Action</t>
+  </si>
   <si>
     <t>thing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5 min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stand up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give up once</t>
   </si>
   <si>
     <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>马上去想它，我没有要求想出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no done</t>
+  </si>
+  <si>
+    <t>延迟</t>
   </si>
   <si>
     <t>第一步：url和图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你任务是coding</t>
   </si>
   <si>
     <t>每次点击呼吸10秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你任务是coding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>看网页 看网页卡主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>看视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末日志回访</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>c++基础</t>
+  </si>
+  <si>
+    <t>类型转换</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>写代码时候可以放下浏览器 忘记他</t>
+  </si>
+  <si>
+    <t>virtaul hansh</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>看清改变真正阻力工具</t>
   </si>
   <si>
     <t>我期望达成目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在床上只做睡觉相关的事情</t>
   </si>
   <si>
     <t>与目标相反的行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周末日志回访</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不停看手机，下载浏览，看小说，【其实内心很反感的，疲累不堪，第二天无精神】</t>
   </si>
   <si>
     <t>潜在好处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不去感受自己身体痛苦，精神痛苦，未来迷茫，30分钟将要经历失去</t>
   </si>
   <si>
     <t>内心重大假设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看清改变真正阻力工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在床上只做睡觉相关的事情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不停看手机，下载浏览，看小说，【其实内心很反感的，疲累不堪，第二天无精神】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不去感受自己身体痛苦，精神痛苦，未来迷茫，30分钟将要经历失去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>只要打开手机，解锁了，看到感到了，你无法抵抗，内心说不行 不行 不行一直根本不行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c++基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>give up once</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写代码时候可以放下浏览器 忘记他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtaul hansh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>解决</t>
+  </si>
+  <si>
+    <t>关键点</t>
+  </si>
+  <si>
+    <t>process crash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +315,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -195,35 +512,277 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -244,11 +803,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -531,19 +1142,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -558,22 +1169,22 @@
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -581,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -596,7 +1207,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -604,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -619,7 +1230,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -627,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -642,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -650,13 +1261,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -668,44 +1279,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -713,49 +1324,51 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -765,7 +1378,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -775,7 +1388,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -785,7 +1398,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -795,7 +1408,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -805,7 +1418,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -824,21 +1437,22 @@
       <c r="F17" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="A1" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="2" max="2" width="77.75" customWidth="1"/>
@@ -846,59 +1460,89 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="21.975" customWidth="1"/>
+    <col min="3" max="3" width="27.1416666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>